--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR13_경전선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR13_경전선.xlsx
@@ -45,9 +45,6 @@
     <t>NBEATSx</t>
   </si>
   <si>
-    <t>NHITS</t>
-  </si>
-  <si>
     <t>NBEATS</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>CatBoost</t>
+  </si>
+  <si>
+    <t>NHITS</t>
   </si>
   <si>
     <t>MLP</t>
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>48625345691.95248</v>
+        <v>46257337432.96484</v>
       </c>
       <c r="C3">
-        <v>220511.5545542965</v>
+        <v>215075.1901846534</v>
       </c>
       <c r="D3">
-        <v>0.02461804844849416</v>
+        <v>0.02567553055884656</v>
       </c>
       <c r="E3">
-        <v>82748.92708333333</v>
+        <v>96545.47916666667</v>
       </c>
       <c r="F3">
-        <v>0.07261500514376354</v>
+        <v>0.09550584918001882</v>
       </c>
       <c r="G3">
-        <v>23303.6875</v>
+        <v>45273.65625</v>
       </c>
       <c r="H3">
-        <v>0.03587148120830803</v>
+        <v>0.06553112948134837</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>46257337432.96484</v>
+        <v>53490332582.5306</v>
       </c>
       <c r="C4">
-        <v>215075.1901846534</v>
+        <v>231279.771235036</v>
       </c>
       <c r="D4">
-        <v>0.02567553055884656</v>
+        <v>0.03280001433712553</v>
       </c>
       <c r="E4">
-        <v>96545.47916666667</v>
+        <v>116274.7916666667</v>
       </c>
       <c r="F4">
-        <v>0.09550584918001882</v>
+        <v>0.1207237709307524</v>
       </c>
       <c r="G4">
-        <v>45273.65625</v>
+        <v>67058.90625</v>
       </c>
       <c r="H4">
-        <v>0.06553112948134837</v>
+        <v>0.09943308754257699</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>53490332582.5306</v>
+        <v>84635738622.79932</v>
       </c>
       <c r="C5">
-        <v>231279.771235036</v>
+        <v>290922.2209161743</v>
       </c>
       <c r="D5">
-        <v>0.03280001433712553</v>
+        <v>0.0879921493568661</v>
       </c>
       <c r="E5">
-        <v>116274.7916666667</v>
+        <v>227031.7083333333</v>
       </c>
       <c r="F5">
-        <v>0.1207237709307524</v>
+        <v>0.2807456083803961</v>
       </c>
       <c r="G5">
-        <v>67058.90625</v>
+        <v>176042.171875</v>
       </c>
       <c r="H5">
-        <v>0.09943308754257699</v>
+        <v>0.2666061690672465</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>84635738622.79932</v>
+        <v>95528302117.06267</v>
       </c>
       <c r="C6">
-        <v>290922.2209161743</v>
+        <v>309076.5311651189</v>
       </c>
       <c r="D6">
-        <v>0.0879921493568661</v>
+        <v>0.09268143119061019</v>
       </c>
       <c r="E6">
-        <v>227031.7083333333</v>
+        <v>233384.1979166667</v>
       </c>
       <c r="F6">
-        <v>0.2807456083803961</v>
+        <v>0.2851988611554011</v>
       </c>
       <c r="G6">
-        <v>176042.171875</v>
+        <v>179837.75</v>
       </c>
       <c r="H6">
-        <v>0.2666061690672465</v>
+        <v>0.2645972278929271</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>95528302117.06267</v>
+        <v>96297610194.83887</v>
       </c>
       <c r="C7">
-        <v>309076.5311651189</v>
+        <v>310318.5624400172</v>
       </c>
       <c r="D7">
-        <v>0.09268143119061019</v>
+        <v>0.1008110751905349</v>
       </c>
       <c r="E7">
-        <v>233384.1979166667</v>
+        <v>243680.9375</v>
       </c>
       <c r="F7">
-        <v>0.2851988611554011</v>
+        <v>0.3022109584975708</v>
       </c>
       <c r="G7">
-        <v>179837.75</v>
+        <v>187952.046875</v>
       </c>
       <c r="H7">
-        <v>0.2645972278929271</v>
+        <v>0.2792178572812193</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>96297610194.83887</v>
+        <v>101581432035.1086</v>
       </c>
       <c r="C8">
-        <v>310318.5624400172</v>
+        <v>318718.4212359064</v>
       </c>
       <c r="D8">
-        <v>0.1008110751905349</v>
+        <v>0.1074035434012406</v>
       </c>
       <c r="E8">
-        <v>243680.9375</v>
+        <v>251929.9088541667</v>
       </c>
       <c r="F8">
-        <v>0.3022109584975708</v>
+        <v>0.3128200485438561</v>
       </c>
       <c r="G8">
-        <v>187952.046875</v>
+        <v>195951.6875</v>
       </c>
       <c r="H8">
-        <v>0.2792178572812193</v>
+        <v>0.2944422923144446</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>101581432035.1086</v>
+        <v>105725631610.4639</v>
       </c>
       <c r="C9">
-        <v>318718.4212359064</v>
+        <v>325154.7810050836</v>
       </c>
       <c r="D9">
-        <v>0.1074035434012406</v>
+        <v>0.1143854039023852</v>
       </c>
       <c r="E9">
-        <v>251929.9088541667</v>
+        <v>260023.46875</v>
       </c>
       <c r="F9">
-        <v>0.3128200485438561</v>
+        <v>0.3243003653541997</v>
       </c>
       <c r="G9">
-        <v>195951.6875</v>
+        <v>211415.078125</v>
       </c>
       <c r="H9">
-        <v>0.2944422923144446</v>
+        <v>0.3016140356229898</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>105725631610.4639</v>
+        <v>109479502589.9997</v>
       </c>
       <c r="C10">
-        <v>325154.7810050836</v>
+        <v>330876.8692278137</v>
       </c>
       <c r="D10">
-        <v>0.1143854039023852</v>
+        <v>0.1230350553941892</v>
       </c>
       <c r="E10">
-        <v>260023.46875</v>
+        <v>269010.9901785414</v>
       </c>
       <c r="F10">
-        <v>0.3243003653541997</v>
+        <v>0.3374770099900122</v>
       </c>
       <c r="G10">
-        <v>211415.078125</v>
+        <v>226153.624782648</v>
       </c>
       <c r="H10">
-        <v>0.3016140356229898</v>
+        <v>0.3188526226827784</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>109479502589.9997</v>
+        <v>115010438369.6241</v>
       </c>
       <c r="C11">
-        <v>330876.8692278137</v>
+        <v>339131.8893434</v>
       </c>
       <c r="D11">
-        <v>0.1230350553941892</v>
+        <v>0.1247789668531436</v>
       </c>
       <c r="E11">
-        <v>269010.9901785414</v>
+        <v>271471.4057886429</v>
       </c>
       <c r="F11">
-        <v>0.3374770099900122</v>
+        <v>0.3386478788009565</v>
       </c>
       <c r="G11">
-        <v>226153.624782648</v>
+        <v>218867.8794170661</v>
       </c>
       <c r="H11">
-        <v>0.3188526226827784</v>
+        <v>0.3211752880784409</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>115010438369.6241</v>
+        <v>112597302236.4886</v>
       </c>
       <c r="C12">
-        <v>339131.8893434</v>
+        <v>335555.2148849554</v>
       </c>
       <c r="D12">
-        <v>0.1247789668531436</v>
+        <v>0.1280096569971414</v>
       </c>
       <c r="E12">
-        <v>271471.4057886429</v>
+        <v>273924.4010416667</v>
       </c>
       <c r="F12">
-        <v>0.3386478788009565</v>
+        <v>0.3441426894201272</v>
       </c>
       <c r="G12">
-        <v>218867.8794170661</v>
+        <v>224522.21875</v>
       </c>
       <c r="H12">
-        <v>0.3211752880784409</v>
+        <v>0.323570306319127</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>112597302236.4886</v>
+        <v>112361872367.5253</v>
       </c>
       <c r="C13">
-        <v>335555.2148849554</v>
+        <v>335204.2248652683</v>
       </c>
       <c r="D13">
-        <v>0.1280096569971414</v>
+        <v>0.1282863602684856</v>
       </c>
       <c r="E13">
-        <v>273924.4010416667</v>
+        <v>274001.6664260345</v>
       </c>
       <c r="F13">
-        <v>0.3441426894201272</v>
+        <v>0.3445343632708002</v>
       </c>
       <c r="G13">
-        <v>224522.21875</v>
+        <v>225612.9741247148</v>
       </c>
       <c r="H13">
-        <v>0.323570306319127</v>
+        <v>0.3241310097135012</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>112361872367.5253</v>
+        <v>171558557050.7126</v>
       </c>
       <c r="C14">
-        <v>335204.2248652683</v>
+        <v>414196.2784124364</v>
       </c>
       <c r="D14">
-        <v>0.1282863602684856</v>
+        <v>0.347021471692587</v>
       </c>
       <c r="E14">
-        <v>274001.6664260345</v>
+        <v>395192.7552083333</v>
       </c>
       <c r="F14">
-        <v>0.3445343632708002</v>
+        <v>0.5548535411293093</v>
       </c>
       <c r="G14">
-        <v>225612.9741247148</v>
+        <v>436871.9375</v>
       </c>
       <c r="H14">
-        <v>0.3241310097135012</v>
+        <v>0.6232362976884294</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -927,40 +927,40 @@
         <v>673039.5625</v>
       </c>
       <c r="E2">
-        <v>673074.1875</v>
+        <v>736484.0625</v>
       </c>
       <c r="F2">
-        <v>736484.0625</v>
+        <v>726551.875</v>
       </c>
       <c r="G2">
-        <v>726551.875</v>
+        <v>574725.5625</v>
       </c>
       <c r="H2">
-        <v>574725.5625</v>
+        <v>543313.3125</v>
       </c>
       <c r="I2">
-        <v>543313.3125</v>
+        <v>528722.375</v>
       </c>
       <c r="J2">
-        <v>528722.375</v>
+        <v>521608.4375</v>
       </c>
       <c r="K2">
-        <v>521608.4375</v>
+        <v>499130.125</v>
       </c>
       <c r="L2">
-        <v>499130.125</v>
+        <v>492754.232642857</v>
       </c>
       <c r="M2">
-        <v>492754.232642857</v>
+        <v>474072.1487711122</v>
       </c>
       <c r="N2">
-        <v>474072.1487711122</v>
+        <v>491423.21875</v>
       </c>
       <c r="O2">
-        <v>491423.21875</v>
+        <v>492265.3428989198</v>
       </c>
       <c r="P2">
-        <v>492265.3428989198</v>
+        <v>972019.375</v>
       </c>
       <c r="Q2">
         <v>-237672.890625</v>
@@ -980,40 +980,40 @@
         <v>673040.5625</v>
       </c>
       <c r="E3">
-        <v>673073.5</v>
+        <v>701859.25</v>
       </c>
       <c r="F3">
-        <v>701859.25</v>
+        <v>663077.3125</v>
       </c>
       <c r="G3">
-        <v>663077.3125</v>
+        <v>608986.5625</v>
       </c>
       <c r="H3">
-        <v>608986.5625</v>
+        <v>529638.625</v>
       </c>
       <c r="I3">
-        <v>529638.625</v>
+        <v>554436.4375</v>
       </c>
       <c r="J3">
-        <v>554436.4375</v>
+        <v>536905.625</v>
       </c>
       <c r="K3">
-        <v>536905.625</v>
+        <v>528395</v>
       </c>
       <c r="L3">
-        <v>528395</v>
+        <v>531505.2081666668</v>
       </c>
       <c r="M3">
-        <v>531505.2081666668</v>
+        <v>491320.2713260231</v>
       </c>
       <c r="N3">
-        <v>491320.2713260231</v>
+        <v>525369.9375</v>
       </c>
       <c r="O3">
-        <v>525369.9375</v>
+        <v>527780.0578476065</v>
       </c>
       <c r="P3">
-        <v>527780.0578476065</v>
+        <v>972021.5625</v>
       </c>
       <c r="Q3">
         <v>-2952647</v>
@@ -1033,40 +1033,40 @@
         <v>673034.1875</v>
       </c>
       <c r="E4">
-        <v>673072.1875</v>
+        <v>678896.3125</v>
       </c>
       <c r="F4">
-        <v>678896.3125</v>
+        <v>681221.6875</v>
       </c>
       <c r="G4">
-        <v>681221.6875</v>
+        <v>473336.8125</v>
       </c>
       <c r="H4">
-        <v>473336.8125</v>
+        <v>498658.3125</v>
       </c>
       <c r="I4">
-        <v>498658.3125</v>
+        <v>480751.34375</v>
       </c>
       <c r="J4">
-        <v>480751.34375</v>
+        <v>455683.1875</v>
       </c>
       <c r="K4">
-        <v>455683.1875</v>
+        <v>454944.0625</v>
       </c>
       <c r="L4">
-        <v>454944.0625</v>
+        <v>469275.8081904761</v>
       </c>
       <c r="M4">
-        <v>469275.8081904761</v>
+        <v>466578.6720054821</v>
       </c>
       <c r="N4">
-        <v>466578.6720054821</v>
+        <v>454313.4375</v>
       </c>
       <c r="O4">
-        <v>454313.4375</v>
+        <v>455694.1158914956</v>
       </c>
       <c r="P4">
-        <v>455694.1158914956</v>
+        <v>993007.875</v>
       </c>
       <c r="Q4">
         <v>-1290723.375</v>
@@ -1086,40 +1086,40 @@
         <v>673038.8125</v>
       </c>
       <c r="E5">
-        <v>673072.1875</v>
+        <v>683958.5</v>
       </c>
       <c r="F5">
-        <v>683958.5</v>
+        <v>660273.0625</v>
       </c>
       <c r="G5">
-        <v>660273.0625</v>
+        <v>474982.28125</v>
       </c>
       <c r="H5">
-        <v>474982.28125</v>
+        <v>493858.875</v>
       </c>
       <c r="I5">
-        <v>493858.875</v>
+        <v>437038.125</v>
       </c>
       <c r="J5">
-        <v>437038.125</v>
+        <v>455658.8125</v>
       </c>
       <c r="K5">
-        <v>455658.8125</v>
+        <v>432666.375</v>
       </c>
       <c r="L5">
-        <v>432666.375</v>
+        <v>450840.8688095239</v>
       </c>
       <c r="M5">
-        <v>450840.8688095239</v>
+        <v>491176.8719352585</v>
       </c>
       <c r="N5">
-        <v>491176.8719352585</v>
+        <v>447600.34375</v>
       </c>
       <c r="O5">
-        <v>447600.34375</v>
+        <v>444502.6732804174</v>
       </c>
       <c r="P5">
-        <v>444502.6732804174</v>
+        <v>1040967.75</v>
       </c>
       <c r="Q5">
         <v>16635.595703125</v>
@@ -1139,40 +1139,40 @@
         <v>673039.1875</v>
       </c>
       <c r="E6">
-        <v>673073.75</v>
+        <v>683603</v>
       </c>
       <c r="F6">
-        <v>683603</v>
+        <v>603248.125</v>
       </c>
       <c r="G6">
-        <v>603248.125</v>
+        <v>493838.375</v>
       </c>
       <c r="H6">
-        <v>493838.375</v>
+        <v>481686.0625</v>
       </c>
       <c r="I6">
-        <v>481686.0625</v>
+        <v>470978.84375</v>
       </c>
       <c r="J6">
-        <v>470978.84375</v>
+        <v>473342.8125</v>
       </c>
       <c r="K6">
-        <v>473342.8125</v>
+        <v>455877.75</v>
       </c>
       <c r="L6">
-        <v>455877.75</v>
+        <v>439207.2495119045</v>
       </c>
       <c r="M6">
-        <v>439207.2495119045</v>
+        <v>439959.612117082</v>
       </c>
       <c r="N6">
-        <v>439959.612117082</v>
+        <v>436618.8125</v>
       </c>
       <c r="O6">
-        <v>436618.8125</v>
+        <v>437133.2190826302</v>
       </c>
       <c r="P6">
-        <v>437133.2190826302</v>
+        <v>1088923.875</v>
       </c>
       <c r="Q6">
         <v>1545378</v>
@@ -1192,40 +1192,40 @@
         <v>673046.1875</v>
       </c>
       <c r="E7">
-        <v>673075.1875</v>
+        <v>707643.25</v>
       </c>
       <c r="F7">
-        <v>707643.25</v>
+        <v>654097.5</v>
       </c>
       <c r="G7">
-        <v>654097.5</v>
+        <v>510925.1875</v>
       </c>
       <c r="H7">
-        <v>510925.1875</v>
+        <v>505409.0625</v>
       </c>
       <c r="I7">
-        <v>505409.0625</v>
+        <v>501144.4375</v>
       </c>
       <c r="J7">
-        <v>501144.4375</v>
+        <v>484081.5</v>
       </c>
       <c r="K7">
-        <v>484081.5</v>
+        <v>486501</v>
       </c>
       <c r="L7">
-        <v>486501</v>
+        <v>515596.1513571428</v>
       </c>
       <c r="M7">
-        <v>515596.1513571428</v>
+        <v>472460.9306654833</v>
       </c>
       <c r="N7">
-        <v>472460.9306654833</v>
+        <v>523303.71875</v>
       </c>
       <c r="O7">
-        <v>523303.71875</v>
+        <v>522539.8662292362</v>
       </c>
       <c r="P7">
-        <v>522539.8662292362</v>
+        <v>1136880.375</v>
       </c>
       <c r="Q7">
         <v>-1135950.875</v>
@@ -1245,40 +1245,40 @@
         <v>673044.5625</v>
       </c>
       <c r="E8">
-        <v>673077.1875</v>
+        <v>732002.1875</v>
       </c>
       <c r="F8">
-        <v>732002.1875</v>
+        <v>667923.875</v>
       </c>
       <c r="G8">
-        <v>667923.875</v>
+        <v>504412.875</v>
       </c>
       <c r="H8">
-        <v>504412.875</v>
+        <v>515652.3125</v>
       </c>
       <c r="I8">
-        <v>515652.3125</v>
+        <v>505275.34375</v>
       </c>
       <c r="J8">
-        <v>505275.34375</v>
+        <v>479546.15625</v>
       </c>
       <c r="K8">
-        <v>479546.15625</v>
+        <v>479552.8125</v>
       </c>
       <c r="L8">
-        <v>479552.8125</v>
+        <v>488356.8454682539</v>
       </c>
       <c r="M8">
-        <v>488356.8454682539</v>
+        <v>517789.8788962789</v>
       </c>
       <c r="N8">
-        <v>517789.8788962789</v>
+        <v>451854.53125</v>
       </c>
       <c r="O8">
-        <v>451854.53125</v>
+        <v>470815.2303124135</v>
       </c>
       <c r="P8">
-        <v>470815.2303124135</v>
+        <v>1169592.75</v>
       </c>
       <c r="Q8">
         <v>-104431.46875</v>
@@ -1298,40 +1298,40 @@
         <v>673040.75</v>
       </c>
       <c r="E9">
-        <v>673079.8125</v>
+        <v>740693.75</v>
       </c>
       <c r="F9">
-        <v>740693.75</v>
+        <v>797941.25</v>
       </c>
       <c r="G9">
-        <v>797941.25</v>
+        <v>517174.625</v>
       </c>
       <c r="H9">
-        <v>517174.625</v>
+        <v>530908.9375</v>
       </c>
       <c r="I9">
-        <v>530908.9375</v>
+        <v>510311.625</v>
       </c>
       <c r="J9">
-        <v>510311.625</v>
+        <v>498769.28125</v>
       </c>
       <c r="K9">
-        <v>498769.28125</v>
+        <v>500996.875</v>
       </c>
       <c r="L9">
-        <v>500996.875</v>
+        <v>459561.3529325396</v>
       </c>
       <c r="M9">
-        <v>459561.3529325396</v>
+        <v>448535.7885675267</v>
       </c>
       <c r="N9">
-        <v>448535.7885675267</v>
+        <v>458511.5</v>
       </c>
       <c r="O9">
-        <v>458511.5</v>
+        <v>457700.631475641</v>
       </c>
       <c r="P9">
-        <v>457700.631475641</v>
+        <v>1168765.25</v>
       </c>
       <c r="Q9">
         <v>4176386.5</v>
@@ -1351,40 +1351,40 @@
         <v>673038.9375</v>
       </c>
       <c r="E10">
-        <v>673081.875</v>
+        <v>739158.75</v>
       </c>
       <c r="F10">
-        <v>739158.75</v>
+        <v>827055.9375</v>
       </c>
       <c r="G10">
-        <v>827055.9375</v>
+        <v>503250.53125</v>
       </c>
       <c r="H10">
-        <v>503250.53125</v>
+        <v>527009.25</v>
       </c>
       <c r="I10">
-        <v>527009.25</v>
+        <v>525726.5625</v>
       </c>
       <c r="J10">
-        <v>525726.5625</v>
+        <v>502725</v>
       </c>
       <c r="K10">
-        <v>502725</v>
+        <v>496434.46875</v>
       </c>
       <c r="L10">
-        <v>496434.46875</v>
+        <v>477886.9049664501</v>
       </c>
       <c r="M10">
-        <v>477886.9049664501</v>
+        <v>473651.6258701002</v>
       </c>
       <c r="N10">
-        <v>473651.6258701002</v>
+        <v>482271.0625</v>
       </c>
       <c r="O10">
-        <v>482271.0625</v>
+        <v>480900.4202749293</v>
       </c>
       <c r="P10">
-        <v>480900.4202749293</v>
+        <v>1167940.125</v>
       </c>
       <c r="Q10">
         <v>2321493</v>
@@ -1404,40 +1404,40 @@
         <v>673044.1875</v>
       </c>
       <c r="E11">
-        <v>673085.875</v>
+        <v>724497.875</v>
       </c>
       <c r="F11">
-        <v>724497.875</v>
+        <v>576588.0625</v>
       </c>
       <c r="G11">
-        <v>576588.0625</v>
+        <v>489314.4375</v>
       </c>
       <c r="H11">
-        <v>489314.4375</v>
+        <v>471861.25</v>
       </c>
       <c r="I11">
-        <v>471861.25</v>
+        <v>465293.25</v>
       </c>
       <c r="J11">
-        <v>465293.25</v>
+        <v>475123.8125</v>
       </c>
       <c r="K11">
-        <v>475123.8125</v>
+        <v>468881.15625</v>
       </c>
       <c r="L11">
-        <v>468881.15625</v>
+        <v>439207.2495119045</v>
       </c>
       <c r="M11">
-        <v>439207.2495119045</v>
+        <v>439959.612117082</v>
       </c>
       <c r="N11">
-        <v>439959.612117082</v>
+        <v>436618.8125</v>
       </c>
       <c r="O11">
-        <v>436618.8125</v>
+        <v>437133.2190826302</v>
       </c>
       <c r="P11">
-        <v>437133.2190826302</v>
+        <v>1167114.25</v>
       </c>
       <c r="Q11">
         <v>-697331.25</v>
@@ -1457,40 +1457,40 @@
         <v>673042.1875</v>
       </c>
       <c r="E12">
-        <v>673088.5</v>
+        <v>721966.1875</v>
       </c>
       <c r="F12">
-        <v>721966.1875</v>
+        <v>594890.8125</v>
       </c>
       <c r="G12">
-        <v>594890.8125</v>
+        <v>517306.8125</v>
       </c>
       <c r="H12">
-        <v>517306.8125</v>
+        <v>490073.03125</v>
       </c>
       <c r="I12">
-        <v>490073.03125</v>
+        <v>494035.0625</v>
       </c>
       <c r="J12">
-        <v>494035.0625</v>
+        <v>505282.84375</v>
       </c>
       <c r="K12">
-        <v>505282.84375</v>
+        <v>486920.96875</v>
       </c>
       <c r="L12">
-        <v>486920.96875</v>
+        <v>432626.3413333333</v>
       </c>
       <c r="M12">
-        <v>432626.3413333333</v>
+        <v>456023.0923947557</v>
       </c>
       <c r="N12">
-        <v>456023.0923947557</v>
+        <v>425587.75</v>
       </c>
       <c r="O12">
-        <v>425587.75</v>
+        <v>407451.8062367378</v>
       </c>
       <c r="P12">
-        <v>407451.8062367378</v>
+        <v>1100195.125</v>
       </c>
       <c r="Q12">
         <v>392010.75</v>
@@ -1510,40 +1510,40 @@
         <v>673043.4375</v>
       </c>
       <c r="E13">
-        <v>673088</v>
+        <v>749454.125</v>
       </c>
       <c r="F13">
-        <v>749454.125</v>
+        <v>631538.625</v>
       </c>
       <c r="G13">
-        <v>631538.625</v>
+        <v>510202.4375</v>
       </c>
       <c r="H13">
-        <v>510202.4375</v>
+        <v>514157.59375</v>
       </c>
       <c r="I13">
-        <v>514157.59375</v>
+        <v>504952.34375</v>
       </c>
       <c r="J13">
-        <v>504952.34375</v>
+        <v>490950.625</v>
       </c>
       <c r="K13">
-        <v>490950.625</v>
+        <v>492254.78125</v>
       </c>
       <c r="L13">
-        <v>492254.78125</v>
+        <v>477886.9049664501</v>
       </c>
       <c r="M13">
-        <v>477886.9049664501</v>
+        <v>473651.6258701002</v>
       </c>
       <c r="N13">
-        <v>473651.6258701002</v>
+        <v>482271.0625</v>
       </c>
       <c r="O13">
-        <v>482271.0625</v>
+        <v>480900.4202749293</v>
       </c>
       <c r="P13">
-        <v>480900.4202749293</v>
+        <v>746880.875</v>
       </c>
       <c r="Q13">
         <v>1796140.5</v>
@@ -1563,40 +1563,40 @@
         <v>673045.1875</v>
       </c>
       <c r="E14">
-        <v>673084.625</v>
+        <v>783607.125</v>
       </c>
       <c r="F14">
-        <v>783607.125</v>
+        <v>633566.3125</v>
       </c>
       <c r="G14">
-        <v>633566.3125</v>
+        <v>531826.875</v>
       </c>
       <c r="H14">
-        <v>531826.875</v>
+        <v>538349.125</v>
       </c>
       <c r="I14">
-        <v>538349.125</v>
+        <v>512974.53125</v>
       </c>
       <c r="J14">
-        <v>512974.53125</v>
+        <v>508993.1875</v>
       </c>
       <c r="K14">
-        <v>508993.1875</v>
+        <v>503865.0625</v>
       </c>
       <c r="L14">
-        <v>503865.0625</v>
+        <v>353290.6695238096</v>
       </c>
       <c r="M14">
-        <v>353290.6695238096</v>
+        <v>422854.8889529357</v>
       </c>
       <c r="N14">
-        <v>422854.8889529357</v>
+        <v>343132.6875</v>
       </c>
       <c r="O14">
-        <v>343132.6875</v>
+        <v>350404.3252262224</v>
       </c>
       <c r="P14">
-        <v>350404.3252262224</v>
+        <v>393566.1875</v>
       </c>
       <c r="Q14">
         <v>1595602.875</v>
@@ -1616,40 +1616,40 @@
         <v>673043.25</v>
       </c>
       <c r="E15">
-        <v>673081.5625</v>
+        <v>798869.5</v>
       </c>
       <c r="F15">
-        <v>798869.5</v>
+        <v>574443.875</v>
       </c>
       <c r="G15">
-        <v>574443.875</v>
+        <v>560229.9375</v>
       </c>
       <c r="H15">
-        <v>560229.9375</v>
+        <v>571112.125</v>
       </c>
       <c r="I15">
-        <v>571112.125</v>
+        <v>561589.4375</v>
       </c>
       <c r="J15">
-        <v>561589.4375</v>
+        <v>559747.75</v>
       </c>
       <c r="K15">
-        <v>559747.75</v>
+        <v>555947.4375</v>
       </c>
       <c r="L15">
-        <v>555947.4375</v>
+        <v>506064.0107857143</v>
       </c>
       <c r="M15">
-        <v>506064.0107857143</v>
+        <v>517789.8788962789</v>
       </c>
       <c r="N15">
-        <v>517789.8788962789</v>
+        <v>501467.125</v>
       </c>
       <c r="O15">
-        <v>501467.125</v>
+        <v>506159.7728012356</v>
       </c>
       <c r="P15">
-        <v>506159.7728012356</v>
+        <v>40250.73046875</v>
       </c>
       <c r="Q15">
         <v>1332460.25</v>
@@ -1669,40 +1669,40 @@
         <v>673046</v>
       </c>
       <c r="E16">
-        <v>673079.9375</v>
+        <v>791261</v>
       </c>
       <c r="F16">
-        <v>791261</v>
+        <v>578803.3125</v>
       </c>
       <c r="G16">
-        <v>578803.3125</v>
+        <v>505187.59375</v>
       </c>
       <c r="H16">
-        <v>505187.59375</v>
+        <v>501388.03125</v>
       </c>
       <c r="I16">
-        <v>501388.03125</v>
+        <v>514866.53125</v>
       </c>
       <c r="J16">
-        <v>514866.53125</v>
+        <v>494364.75</v>
       </c>
       <c r="K16">
-        <v>494364.75</v>
+        <v>491604.90625</v>
       </c>
       <c r="L16">
-        <v>491604.90625</v>
+        <v>511258.415690476</v>
       </c>
       <c r="M16">
-        <v>511258.415690476</v>
+        <v>456546.9027059539</v>
       </c>
       <c r="N16">
-        <v>456546.9027059539</v>
+        <v>514058.0625</v>
       </c>
       <c r="O16">
-        <v>514058.0625</v>
+        <v>510893.0416415477</v>
       </c>
       <c r="P16">
-        <v>510893.0416415477</v>
+        <v>-274746.84375</v>
       </c>
       <c r="Q16">
         <v>837059.6875</v>
@@ -1722,40 +1722,40 @@
         <v>673041.75</v>
       </c>
       <c r="E17">
-        <v>673090.375</v>
+        <v>781742.25</v>
       </c>
       <c r="F17">
-        <v>781742.25</v>
+        <v>593157.5</v>
       </c>
       <c r="G17">
-        <v>593157.5</v>
+        <v>523148.90625</v>
       </c>
       <c r="H17">
-        <v>523148.90625</v>
+        <v>499404.125</v>
       </c>
       <c r="I17">
-        <v>499404.125</v>
+        <v>473619.21875</v>
       </c>
       <c r="J17">
-        <v>473619.21875</v>
+        <v>490793.84375</v>
       </c>
       <c r="K17">
-        <v>490793.84375</v>
+        <v>480011.28125</v>
       </c>
       <c r="L17">
-        <v>480011.28125</v>
+        <v>508912.3714880953</v>
       </c>
       <c r="M17">
-        <v>508912.3714880953</v>
+        <v>465640.511731673</v>
       </c>
       <c r="N17">
-        <v>465640.511731673</v>
+        <v>536273</v>
       </c>
       <c r="O17">
-        <v>536273</v>
+        <v>529394.1018403975</v>
       </c>
       <c r="P17">
-        <v>529394.1018403975</v>
+        <v>-14963.4326171875</v>
       </c>
       <c r="Q17">
         <v>3835264.75</v>
@@ -1775,40 +1775,40 @@
         <v>673046.375</v>
       </c>
       <c r="E18">
-        <v>673098.6875</v>
+        <v>771656.5</v>
       </c>
       <c r="F18">
-        <v>771656.5</v>
+        <v>493302.3125</v>
       </c>
       <c r="G18">
-        <v>493302.3125</v>
+        <v>581461.625</v>
       </c>
       <c r="H18">
-        <v>581461.625</v>
+        <v>518117.34375</v>
       </c>
       <c r="I18">
-        <v>518117.34375</v>
+        <v>509705.625</v>
       </c>
       <c r="J18">
-        <v>509705.625</v>
+        <v>520112.5625</v>
       </c>
       <c r="K18">
-        <v>520112.5625</v>
+        <v>514529.0625</v>
       </c>
       <c r="L18">
-        <v>514529.0625</v>
+        <v>476957.8652186148</v>
       </c>
       <c r="M18">
-        <v>476957.8652186148</v>
+        <v>473651.6258701002</v>
       </c>
       <c r="N18">
-        <v>473651.6258701002</v>
+        <v>476330.6875</v>
       </c>
       <c r="O18">
-        <v>476330.6875</v>
+        <v>475798.2036909495</v>
       </c>
       <c r="P18">
-        <v>475798.2036909495</v>
+        <v>244822.609375</v>
       </c>
       <c r="Q18">
         <v>1964295</v>
@@ -1828,40 +1828,40 @@
         <v>673046.4375</v>
       </c>
       <c r="E19">
-        <v>673109.8125</v>
+        <v>791282.8125</v>
       </c>
       <c r="F19">
-        <v>791282.8125</v>
+        <v>483550.71875</v>
       </c>
       <c r="G19">
-        <v>483550.71875</v>
+        <v>549310.375</v>
       </c>
       <c r="H19">
-        <v>549310.375</v>
+        <v>514265.9375</v>
       </c>
       <c r="I19">
-        <v>514265.9375</v>
+        <v>507566.8125</v>
       </c>
       <c r="J19">
-        <v>507566.8125</v>
+        <v>513585.75</v>
       </c>
       <c r="K19">
-        <v>513585.75</v>
+        <v>515165.15625</v>
       </c>
       <c r="L19">
-        <v>515165.15625</v>
+        <v>493766.776</v>
       </c>
       <c r="M19">
-        <v>493766.776</v>
+        <v>482492.6999650115</v>
       </c>
       <c r="N19">
-        <v>482492.6999650115</v>
+        <v>487056.28125</v>
       </c>
       <c r="O19">
-        <v>487056.28125</v>
+        <v>483854.2274365925</v>
       </c>
       <c r="P19">
-        <v>483854.2274365925</v>
+        <v>504609.15625</v>
       </c>
       <c r="Q19">
         <v>-571713.5625</v>
@@ -1881,40 +1881,40 @@
         <v>673042.4375</v>
       </c>
       <c r="E20">
-        <v>673118.375</v>
+        <v>821463.875</v>
       </c>
       <c r="F20">
-        <v>821463.875</v>
+        <v>658467.0625</v>
       </c>
       <c r="G20">
-        <v>658467.0625</v>
+        <v>586750.5625</v>
       </c>
       <c r="H20">
-        <v>586750.5625</v>
+        <v>504716.6875</v>
       </c>
       <c r="I20">
-        <v>504716.6875</v>
+        <v>518747.3125</v>
       </c>
       <c r="J20">
-        <v>518747.3125</v>
+        <v>526443.5625</v>
       </c>
       <c r="K20">
-        <v>526443.5625</v>
+        <v>526990.1875</v>
       </c>
       <c r="L20">
-        <v>526990.1875</v>
+        <v>544559.6354642857</v>
       </c>
       <c r="M20">
-        <v>544559.6354642857</v>
+        <v>491320.2713260231</v>
       </c>
       <c r="N20">
-        <v>491320.2713260231</v>
+        <v>562498.25</v>
       </c>
       <c r="O20">
-        <v>562498.25</v>
+        <v>557493.3158157293</v>
       </c>
       <c r="P20">
-        <v>557493.3158157293</v>
+        <v>764394.9375</v>
       </c>
       <c r="Q20">
         <v>3560068</v>
@@ -1934,40 +1934,40 @@
         <v>673042.0625</v>
       </c>
       <c r="E21">
-        <v>673118.875</v>
+        <v>843247.75</v>
       </c>
       <c r="F21">
-        <v>843247.75</v>
+        <v>445936.75</v>
       </c>
       <c r="G21">
-        <v>445936.75</v>
+        <v>579177.875</v>
       </c>
       <c r="H21">
-        <v>579177.875</v>
+        <v>514153.40625</v>
       </c>
       <c r="I21">
-        <v>514153.40625</v>
+        <v>521218.78125</v>
       </c>
       <c r="J21">
-        <v>521218.78125</v>
+        <v>539631.0625</v>
       </c>
       <c r="K21">
-        <v>539631.0625</v>
+        <v>527330.625</v>
       </c>
       <c r="L21">
-        <v>527330.625</v>
+        <v>492754.232642857</v>
       </c>
       <c r="M21">
-        <v>492754.232642857</v>
+        <v>474072.1487711122</v>
       </c>
       <c r="N21">
-        <v>474072.1487711122</v>
+        <v>491423.21875</v>
       </c>
       <c r="O21">
-        <v>491423.21875</v>
+        <v>492265.3428989198</v>
       </c>
       <c r="P21">
-        <v>492265.3428989198</v>
+        <v>960579.125</v>
       </c>
       <c r="Q21">
         <v>1174765.75</v>
@@ -1987,40 +1987,40 @@
         <v>673043.1875</v>
       </c>
       <c r="E22">
-        <v>673114.6875</v>
+        <v>847031.75</v>
       </c>
       <c r="F22">
-        <v>847031.75</v>
+        <v>718037.1875</v>
       </c>
       <c r="G22">
-        <v>718037.1875</v>
+        <v>574080.625</v>
       </c>
       <c r="H22">
-        <v>574080.625</v>
+        <v>554446.125</v>
       </c>
       <c r="I22">
-        <v>554446.125</v>
+        <v>548831.5625</v>
       </c>
       <c r="J22">
-        <v>548831.5625</v>
+        <v>547927.625</v>
       </c>
       <c r="K22">
-        <v>547927.625</v>
+        <v>558407.125</v>
       </c>
       <c r="L22">
-        <v>558407.125</v>
+        <v>486443.1295833332</v>
       </c>
       <c r="M22">
-        <v>486443.1295833332</v>
+        <v>466429.2196873378</v>
       </c>
       <c r="N22">
-        <v>466429.2196873378</v>
+        <v>486525.65625</v>
       </c>
       <c r="O22">
-        <v>486525.65625</v>
+        <v>485434.8277207214</v>
       </c>
       <c r="P22">
-        <v>485434.8277207214</v>
+        <v>1152523.25</v>
       </c>
       <c r="Q22">
         <v>-120388.0390625</v>
@@ -2040,40 +2040,40 @@
         <v>673046.75</v>
       </c>
       <c r="E23">
-        <v>673130.625</v>
+        <v>853233.875</v>
       </c>
       <c r="F23">
-        <v>853233.875</v>
+        <v>533763</v>
       </c>
       <c r="G23">
-        <v>533763</v>
+        <v>592452.75</v>
       </c>
       <c r="H23">
-        <v>592452.75</v>
+        <v>551438.625</v>
       </c>
       <c r="I23">
-        <v>551438.625</v>
+        <v>555467.75</v>
       </c>
       <c r="J23">
-        <v>555467.75</v>
+        <v>569188.1875</v>
       </c>
       <c r="K23">
-        <v>569188.1875</v>
+        <v>546993.9375</v>
       </c>
       <c r="L23">
-        <v>546993.9375</v>
+        <v>514179.0804523809</v>
       </c>
       <c r="M23">
-        <v>514179.0804523809</v>
+        <v>517789.8788962789</v>
       </c>
       <c r="N23">
-        <v>517789.8788962789</v>
+        <v>511848.71875</v>
       </c>
       <c r="O23">
-        <v>511848.71875</v>
+        <v>516854.3445779677</v>
       </c>
       <c r="P23">
-        <v>516854.3445779677</v>
+        <v>1344467.875</v>
       </c>
       <c r="Q23">
         <v>1221893.875</v>
@@ -2093,40 +2093,40 @@
         <v>673049.5625</v>
       </c>
       <c r="E24">
-        <v>673131.8125</v>
+        <v>867088.8125</v>
       </c>
       <c r="F24">
-        <v>867088.8125</v>
+        <v>626216.625</v>
       </c>
       <c r="G24">
-        <v>626216.625</v>
+        <v>498920.3125</v>
       </c>
       <c r="H24">
-        <v>498920.3125</v>
+        <v>464316.28125</v>
       </c>
       <c r="I24">
-        <v>464316.28125</v>
+        <v>476619</v>
       </c>
       <c r="J24">
-        <v>476619</v>
+        <v>477121.59375</v>
       </c>
       <c r="K24">
-        <v>477121.59375</v>
+        <v>463766.875</v>
       </c>
       <c r="L24">
-        <v>463766.875</v>
+        <v>456509.5444642857</v>
       </c>
       <c r="M24">
-        <v>456509.5444642857</v>
+        <v>465789.9640498172</v>
       </c>
       <c r="N24">
-        <v>465789.9640498172</v>
+        <v>453276.53125</v>
       </c>
       <c r="O24">
-        <v>453276.53125</v>
+        <v>456171.0571419298</v>
       </c>
       <c r="P24">
-        <v>456171.0571419298</v>
+        <v>1536445.625</v>
       </c>
       <c r="Q24">
         <v>2794508.5</v>
@@ -2146,40 +2146,40 @@
         <v>673047.8125</v>
       </c>
       <c r="E25">
-        <v>673136.625</v>
+        <v>896171.375</v>
       </c>
       <c r="F25">
-        <v>896171.375</v>
+        <v>752991.1875</v>
       </c>
       <c r="G25">
-        <v>752991.1875</v>
+        <v>558909.375</v>
       </c>
       <c r="H25">
-        <v>558909.375</v>
+        <v>486018.40625</v>
       </c>
       <c r="I25">
-        <v>486018.40625</v>
+        <v>525012.75</v>
       </c>
       <c r="J25">
-        <v>525012.75</v>
+        <v>521239.5</v>
       </c>
       <c r="K25">
-        <v>521239.5</v>
+        <v>525000.375</v>
       </c>
       <c r="L25">
-        <v>525000.375</v>
+        <v>437006.9778888889</v>
       </c>
       <c r="M25">
-        <v>437006.9778888889</v>
+        <v>489565.6538296296</v>
       </c>
       <c r="N25">
-        <v>489565.6538296296</v>
+        <v>430223.09375</v>
       </c>
       <c r="O25">
-        <v>430223.09375</v>
+        <v>433361.3172573358</v>
       </c>
       <c r="P25">
-        <v>433361.3172573358</v>
+        <v>1550944.75</v>
       </c>
       <c r="Q25">
         <v>-1659432.5</v>
@@ -2199,40 +2199,40 @@
         <v>673046.6875</v>
       </c>
       <c r="E26">
-        <v>673140.1875</v>
+        <v>905652.4375</v>
       </c>
       <c r="F26">
-        <v>905652.4375</v>
+        <v>674360.125</v>
       </c>
       <c r="G26">
-        <v>674360.125</v>
+        <v>602053.875</v>
       </c>
       <c r="H26">
-        <v>602053.875</v>
+        <v>477288.375</v>
       </c>
       <c r="I26">
-        <v>477288.375</v>
+        <v>522601.4375</v>
       </c>
       <c r="J26">
-        <v>522601.4375</v>
+        <v>533938.5625</v>
       </c>
       <c r="K26">
-        <v>533938.5625</v>
+        <v>540186.25</v>
       </c>
       <c r="L26">
-        <v>540186.25</v>
+        <v>459561.3529325396</v>
       </c>
       <c r="M26">
-        <v>459561.3529325396</v>
+        <v>448535.7885675267</v>
       </c>
       <c r="N26">
-        <v>448535.7885675267</v>
+        <v>458511.5</v>
       </c>
       <c r="O26">
-        <v>458511.5</v>
+        <v>457700.631475641</v>
       </c>
       <c r="P26">
-        <v>457700.631475641</v>
+        <v>1524465.5</v>
       </c>
       <c r="Q26">
         <v>191991.75</v>
@@ -2252,40 +2252,40 @@
         <v>673043.5625</v>
       </c>
       <c r="E27">
-        <v>673145.375</v>
+        <v>909658.5</v>
       </c>
       <c r="F27">
-        <v>909658.5</v>
+        <v>816378.3125</v>
       </c>
       <c r="G27">
-        <v>816378.3125</v>
+        <v>599691.1875</v>
       </c>
       <c r="H27">
-        <v>599691.1875</v>
+        <v>529075.5</v>
       </c>
       <c r="I27">
-        <v>529075.5</v>
+        <v>535715.0625</v>
       </c>
       <c r="J27">
-        <v>535715.0625</v>
+        <v>553674.375</v>
       </c>
       <c r="K27">
-        <v>553674.375</v>
+        <v>555160.875</v>
       </c>
       <c r="L27">
-        <v>555160.875</v>
+        <v>458114.5971666666</v>
       </c>
       <c r="M27">
-        <v>458114.5971666666</v>
+        <v>489565.6538296296</v>
       </c>
       <c r="N27">
-        <v>489565.6538296296</v>
+        <v>478607.625</v>
       </c>
       <c r="O27">
-        <v>478607.625</v>
+        <v>461630.4752749105</v>
       </c>
       <c r="P27">
-        <v>461630.4752749105</v>
+        <v>1497980.5</v>
       </c>
       <c r="Q27">
         <v>4463645</v>
@@ -2305,40 +2305,40 @@
         <v>673045.0625</v>
       </c>
       <c r="E28">
-        <v>673180.9375</v>
+        <v>929042.5</v>
       </c>
       <c r="F28">
-        <v>929042.5</v>
+        <v>566088.625</v>
       </c>
       <c r="G28">
-        <v>566088.625</v>
+        <v>563993.625</v>
       </c>
       <c r="H28">
-        <v>563993.625</v>
+        <v>499873.5</v>
       </c>
       <c r="I28">
-        <v>499873.5</v>
+        <v>508847.15625</v>
       </c>
       <c r="J28">
-        <v>508847.15625</v>
+        <v>512311.40625</v>
       </c>
       <c r="K28">
-        <v>512311.40625</v>
+        <v>517802</v>
       </c>
       <c r="L28">
-        <v>517802</v>
+        <v>469275.8081904761</v>
       </c>
       <c r="M28">
-        <v>469275.8081904761</v>
+        <v>466578.6720054821</v>
       </c>
       <c r="N28">
-        <v>466578.6720054821</v>
+        <v>454313.4375</v>
       </c>
       <c r="O28">
-        <v>454313.4375</v>
+        <v>455694.1158914956</v>
       </c>
       <c r="P28">
-        <v>455694.1158914956</v>
+        <v>1471508.75</v>
       </c>
       <c r="Q28">
         <v>4740989</v>
@@ -2358,40 +2358,40 @@
         <v>673047.875</v>
       </c>
       <c r="E29">
-        <v>673230</v>
+        <v>907766.1875</v>
       </c>
       <c r="F29">
-        <v>907766.1875</v>
+        <v>755364.125</v>
       </c>
       <c r="G29">
-        <v>755364.125</v>
+        <v>614391.25</v>
       </c>
       <c r="H29">
-        <v>614391.25</v>
+        <v>523262.4375</v>
       </c>
       <c r="I29">
-        <v>523262.4375</v>
+        <v>543215.9375</v>
       </c>
       <c r="J29">
-        <v>543215.9375</v>
+        <v>539213</v>
       </c>
       <c r="K29">
-        <v>539213</v>
+        <v>561818.5</v>
       </c>
       <c r="L29">
-        <v>561818.5</v>
+        <v>508912.3714880953</v>
       </c>
       <c r="M29">
-        <v>508912.3714880953</v>
+        <v>465640.511731673</v>
       </c>
       <c r="N29">
-        <v>465640.511731673</v>
+        <v>536273</v>
       </c>
       <c r="O29">
-        <v>536273</v>
+        <v>529394.1018403975</v>
       </c>
       <c r="P29">
-        <v>529394.1018403975</v>
+        <v>1253221.25</v>
       </c>
       <c r="Q29">
         <v>1209941.25</v>
@@ -2411,40 +2411,40 @@
         <v>673045.25</v>
       </c>
       <c r="E30">
-        <v>673246.0625</v>
+        <v>918895.75</v>
       </c>
       <c r="F30">
-        <v>918895.75</v>
+        <v>754081.375</v>
       </c>
       <c r="G30">
-        <v>754081.375</v>
+        <v>595271.4375</v>
       </c>
       <c r="H30">
-        <v>595271.4375</v>
+        <v>497921.03125</v>
       </c>
       <c r="I30">
-        <v>497921.03125</v>
+        <v>548567.375</v>
       </c>
       <c r="J30">
-        <v>548567.375</v>
+        <v>548487.5625</v>
       </c>
       <c r="K30">
-        <v>548487.5625</v>
+        <v>537411.625</v>
       </c>
       <c r="L30">
-        <v>537411.625</v>
+        <v>477886.9049664501</v>
       </c>
       <c r="M30">
-        <v>477886.9049664501</v>
+        <v>473651.6258701002</v>
       </c>
       <c r="N30">
-        <v>473651.6258701002</v>
+        <v>482271.0625</v>
       </c>
       <c r="O30">
-        <v>482271.0625</v>
+        <v>480900.4202749293</v>
       </c>
       <c r="P30">
-        <v>480900.4202749293</v>
+        <v>947727.9375</v>
       </c>
       <c r="Q30">
         <v>2795137.25</v>
@@ -2464,40 +2464,40 @@
         <v>673045.0625</v>
       </c>
       <c r="E31">
-        <v>673246.8125</v>
+        <v>933487.75</v>
       </c>
       <c r="F31">
-        <v>933487.75</v>
+        <v>579461.8125</v>
       </c>
       <c r="G31">
-        <v>579461.8125</v>
+        <v>585255.6875</v>
       </c>
       <c r="H31">
-        <v>585255.6875</v>
+        <v>485050.625</v>
       </c>
       <c r="I31">
-        <v>485050.625</v>
+        <v>489841.6875</v>
       </c>
       <c r="J31">
-        <v>489841.6875</v>
+        <v>482973.375</v>
       </c>
       <c r="K31">
-        <v>482973.375</v>
+        <v>486820.40625</v>
       </c>
       <c r="L31">
-        <v>486820.40625</v>
+        <v>459561.3529325396</v>
       </c>
       <c r="M31">
-        <v>459561.3529325396</v>
+        <v>448535.7885675267</v>
       </c>
       <c r="N31">
-        <v>448535.7885675267</v>
+        <v>458511.5</v>
       </c>
       <c r="O31">
-        <v>458511.5</v>
+        <v>457700.631475641</v>
       </c>
       <c r="P31">
-        <v>457700.631475641</v>
+        <v>642226.125</v>
       </c>
       <c r="Q31">
         <v>-601686</v>
@@ -2517,40 +2517,40 @@
         <v>673046.1875</v>
       </c>
       <c r="E32">
-        <v>673243.625</v>
+        <v>927315.625</v>
       </c>
       <c r="F32">
-        <v>927315.625</v>
+        <v>748833.4375</v>
       </c>
       <c r="G32">
-        <v>748833.4375</v>
+        <v>682422.625</v>
       </c>
       <c r="H32">
-        <v>682422.625</v>
+        <v>571348.5625</v>
       </c>
       <c r="I32">
-        <v>571348.5625</v>
+        <v>573182.375</v>
       </c>
       <c r="J32">
-        <v>573182.375</v>
+        <v>605563.1875</v>
       </c>
       <c r="K32">
-        <v>605563.1875</v>
+        <v>605181.375</v>
       </c>
       <c r="L32">
-        <v>605181.375</v>
+        <v>514179.0804523809</v>
       </c>
       <c r="M32">
-        <v>514179.0804523809</v>
+        <v>517789.8788962789</v>
       </c>
       <c r="N32">
-        <v>517789.8788962789</v>
+        <v>511848.71875</v>
       </c>
       <c r="O32">
-        <v>511848.71875</v>
+        <v>516854.3445779677</v>
       </c>
       <c r="P32">
-        <v>516854.3445779677</v>
+        <v>336718.21875</v>
       </c>
       <c r="Q32">
         <v>1827340</v>
@@ -2570,40 +2570,40 @@
         <v>673045.0625</v>
       </c>
       <c r="E33">
-        <v>673241.375</v>
+        <v>914967.4375</v>
       </c>
       <c r="F33">
-        <v>914967.4375</v>
+        <v>589112.125</v>
       </c>
       <c r="G33">
-        <v>589112.125</v>
+        <v>657218.75</v>
       </c>
       <c r="H33">
-        <v>657218.75</v>
+        <v>548112.375</v>
       </c>
       <c r="I33">
-        <v>548112.375</v>
+        <v>555211.0625</v>
       </c>
       <c r="J33">
-        <v>555211.0625</v>
+        <v>559572.3125</v>
       </c>
       <c r="K33">
-        <v>559572.3125</v>
+        <v>581249.5</v>
       </c>
       <c r="L33">
-        <v>581249.5</v>
+        <v>492754.232642857</v>
       </c>
       <c r="M33">
-        <v>492754.232642857</v>
+        <v>474072.1487711122</v>
       </c>
       <c r="N33">
-        <v>474072.1487711122</v>
+        <v>491423.21875</v>
       </c>
       <c r="O33">
-        <v>491423.21875</v>
+        <v>492265.3428989198</v>
       </c>
       <c r="P33">
-        <v>492265.3428989198</v>
+        <v>203055.828125</v>
       </c>
       <c r="Q33">
         <v>2629241</v>
@@ -2623,40 +2623,40 @@
         <v>673086.9375</v>
       </c>
       <c r="E34">
-        <v>673240.5625</v>
+        <v>940858.875</v>
       </c>
       <c r="F34">
-        <v>940858.875</v>
+        <v>561088.25</v>
       </c>
       <c r="G34">
-        <v>561088.25</v>
+        <v>684176.375</v>
       </c>
       <c r="H34">
-        <v>684176.375</v>
+        <v>509900.625</v>
       </c>
       <c r="I34">
-        <v>509900.625</v>
+        <v>570456.75</v>
       </c>
       <c r="J34">
-        <v>570456.75</v>
+        <v>543351.875</v>
       </c>
       <c r="K34">
-        <v>543351.875</v>
+        <v>580655.625</v>
       </c>
       <c r="L34">
-        <v>580655.625</v>
+        <v>439207.2495119045</v>
       </c>
       <c r="M34">
-        <v>439207.2495119045</v>
+        <v>439959.612117082</v>
       </c>
       <c r="N34">
-        <v>439959.612117082</v>
+        <v>436618.8125</v>
       </c>
       <c r="O34">
-        <v>436618.8125</v>
+        <v>437133.2190826302</v>
       </c>
       <c r="P34">
-        <v>437133.2190826302</v>
+        <v>203055.3125</v>
       </c>
       <c r="Q34">
         <v>11393834</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>9266207651.418131</v>
@@ -2726,33 +2726,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>10094663303.63428</v>
+        <v>10094154770.85425</v>
       </c>
       <c r="C3">
-        <v>100472.201646198</v>
+        <v>100469.6709004974</v>
       </c>
       <c r="D3">
-        <v>0.0280903909171829</v>
+        <v>0.02808867009700922</v>
       </c>
       <c r="E3">
-        <v>52910.34895833334</v>
+        <v>52906.76302083334</v>
       </c>
       <c r="F3">
-        <v>0.1110132124008706</v>
+        <v>0.1110036254806685</v>
       </c>
       <c r="G3">
-        <v>29310.015625</v>
+        <v>29306.53125</v>
       </c>
       <c r="H3">
-        <v>0.09257229181635382</v>
+        <v>0.09256129141086583</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>10566356575.52921</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>23245743087.41453</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>23193159339.99463</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>22521391791.45998</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>26766205730.76475</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>28842587011.20971</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>29306386151.58251</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>29477577914.68443</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>30404040273.59639</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>27173187085.50026</v>
@@ -3086,43 +3086,43 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -3142,7 +3142,7 @@
         <v>365628.8125</v>
       </c>
       <c r="E2">
-        <v>345920.5625</v>
+        <v>345927.875</v>
       </c>
       <c r="F2">
         <v>382234.96875</v>
@@ -3195,7 +3195,7 @@
         <v>359793.28125</v>
       </c>
       <c r="E3">
-        <v>345918.375</v>
+        <v>345926.5</v>
       </c>
       <c r="F3">
         <v>346578.1875</v>
@@ -3248,7 +3248,7 @@
         <v>366961.09375</v>
       </c>
       <c r="E4">
-        <v>345923.125</v>
+        <v>345921.28125</v>
       </c>
       <c r="F4">
         <v>357394.78125</v>
@@ -3301,7 +3301,7 @@
         <v>348469.71875</v>
       </c>
       <c r="E5">
-        <v>345922.34375</v>
+        <v>345929.15625</v>
       </c>
       <c r="F5">
         <v>352257.59375</v>
@@ -3354,7 +3354,7 @@
         <v>338880.125</v>
       </c>
       <c r="E6">
-        <v>345926.5</v>
+        <v>345927.34375</v>
       </c>
       <c r="F6">
         <v>278310.71875</v>
@@ -3407,7 +3407,7 @@
         <v>357670.3125</v>
       </c>
       <c r="E7">
-        <v>345923.375</v>
+        <v>345925.625</v>
       </c>
       <c r="F7">
         <v>370453</v>
@@ -3460,7 +3460,7 @@
         <v>377411.75</v>
       </c>
       <c r="E8">
-        <v>345923.28125</v>
+        <v>345931.4375</v>
       </c>
       <c r="F8">
         <v>348753.59375</v>
@@ -3513,7 +3513,7 @@
         <v>387737.78125</v>
       </c>
       <c r="E9">
-        <v>345921.75</v>
+        <v>345927.8125</v>
       </c>
       <c r="F9">
         <v>426656.375</v>
@@ -3566,7 +3566,7 @@
         <v>394494.6875</v>
       </c>
       <c r="E10">
-        <v>345926.21875</v>
+        <v>345928.5625</v>
       </c>
       <c r="F10">
         <v>470419.75</v>
@@ -3619,7 +3619,7 @@
         <v>380981.25</v>
       </c>
       <c r="E11">
-        <v>345929.84375</v>
+        <v>345927.03125</v>
       </c>
       <c r="F11">
         <v>288739.59375</v>
@@ -3672,7 +3672,7 @@
         <v>372280.28125</v>
       </c>
       <c r="E12">
-        <v>345929.53125</v>
+        <v>345921.71875</v>
       </c>
       <c r="F12">
         <v>267880.6875</v>
@@ -3725,7 +3725,7 @@
         <v>392166.59375</v>
       </c>
       <c r="E13">
-        <v>345930.90625</v>
+        <v>345921.25</v>
       </c>
       <c r="F13">
         <v>339966.71875</v>
@@ -3778,7 +3778,7 @@
         <v>397983.21875</v>
       </c>
       <c r="E14">
-        <v>345932.28125</v>
+        <v>345921.46875</v>
       </c>
       <c r="F14">
         <v>351587.3125</v>
@@ -3831,7 +3831,7 @@
         <v>419213.5625</v>
       </c>
       <c r="E15">
-        <v>345932.46875</v>
+        <v>345923.84375</v>
       </c>
       <c r="F15">
         <v>300878.46875</v>
@@ -3884,7 +3884,7 @@
         <v>425513.40625</v>
       </c>
       <c r="E16">
-        <v>345930.78125</v>
+        <v>345923.65625</v>
       </c>
       <c r="F16">
         <v>310487.65625</v>
@@ -3937,7 +3937,7 @@
         <v>412672.65625</v>
       </c>
       <c r="E17">
-        <v>345926.84375</v>
+        <v>345931.40625</v>
       </c>
       <c r="F17">
         <v>277683.46875</v>
@@ -3990,7 +3990,7 @@
         <v>405053</v>
       </c>
       <c r="E18">
-        <v>345926.59375</v>
+        <v>345918.53125</v>
       </c>
       <c r="F18">
         <v>213938.015625</v>
@@ -4043,7 +4043,7 @@
         <v>415028.03125</v>
       </c>
       <c r="E19">
-        <v>345928.34375</v>
+        <v>345925.65625</v>
       </c>
       <c r="F19">
         <v>247953.828125</v>
@@ -4096,7 +4096,7 @@
         <v>426171.78125</v>
       </c>
       <c r="E20">
-        <v>345930.8125</v>
+        <v>345923.03125</v>
       </c>
       <c r="F20">
         <v>300864.6875</v>
@@ -4149,7 +4149,7 @@
         <v>445933.40625</v>
       </c>
       <c r="E21">
-        <v>345931.5625</v>
+        <v>345925.6875</v>
       </c>
       <c r="F21">
         <v>243338.765625</v>
@@ -4202,7 +4202,7 @@
         <v>457654.5625</v>
       </c>
       <c r="E22">
-        <v>345933.03125</v>
+        <v>345925.875</v>
       </c>
       <c r="F22">
         <v>377557.25</v>
@@ -4255,7 +4255,7 @@
         <v>449305.125</v>
       </c>
       <c r="E23">
-        <v>345934.4375</v>
+        <v>345920.21875</v>
       </c>
       <c r="F23">
         <v>251955.59375</v>
@@ -4308,7 +4308,7 @@
         <v>453446.28125</v>
       </c>
       <c r="E24">
-        <v>345967.15625</v>
+        <v>345925.53125</v>
       </c>
       <c r="F24">
         <v>343098.6875</v>
@@ -4361,7 +4361,7 @@
         <v>458085.8125</v>
       </c>
       <c r="E25">
-        <v>346007.75</v>
+        <v>345943.09375</v>
       </c>
       <c r="F25">
         <v>362600.15625</v>
@@ -4414,7 +4414,7 @@
         <v>467337.125</v>
       </c>
       <c r="E26">
-        <v>346014.3125</v>
+        <v>345958</v>
       </c>
       <c r="F26">
         <v>345281.6875</v>
@@ -4467,7 +4467,7 @@
         <v>483639.34375</v>
       </c>
       <c r="E27">
-        <v>346010.15625</v>
+        <v>345959.375</v>
       </c>
       <c r="F27">
         <v>426259.375</v>
@@ -4520,7 +4520,7 @@
         <v>483007.375</v>
       </c>
       <c r="E28">
-        <v>346030.9375</v>
+        <v>345965.90625</v>
       </c>
       <c r="F28">
         <v>286193.34375</v>
@@ -4573,7 +4573,7 @@
         <v>475186.0625</v>
       </c>
       <c r="E29">
-        <v>346067.59375</v>
+        <v>346078.25</v>
       </c>
       <c r="F29">
         <v>385274.4375</v>
@@ -4626,7 +4626,7 @@
         <v>481966.34375</v>
       </c>
       <c r="E30">
-        <v>346079.71875</v>
+        <v>346081.5625</v>
       </c>
       <c r="F30">
         <v>398479.6875</v>
@@ -4679,7 +4679,7 @@
         <v>483679.21875</v>
       </c>
       <c r="E31">
-        <v>346080.625</v>
+        <v>346095.1875</v>
       </c>
       <c r="F31">
         <v>260903.828125</v>
@@ -4732,7 +4732,7 @@
         <v>491309.96875</v>
       </c>
       <c r="E32">
-        <v>346087.1875</v>
+        <v>346090.75</v>
       </c>
       <c r="F32">
         <v>360267.8125</v>
@@ -4785,7 +4785,7 @@
         <v>489890.03125</v>
       </c>
       <c r="E33">
-        <v>346094.96875</v>
+        <v>346084.1875</v>
       </c>
       <c r="F33">
         <v>309515.75</v>
@@ -4838,7 +4838,7 @@
         <v>499760.78125</v>
       </c>
       <c r="E34">
-        <v>346106.25</v>
+        <v>346083.34375</v>
       </c>
       <c r="F34">
         <v>291067.71875</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>16667025821.99512</v>
@@ -4941,33 +4941,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>16192770773.64111</v>
+        <v>16192765103.99365</v>
       </c>
       <c r="C3">
-        <v>127250.8183613807</v>
+        <v>127250.7960839289</v>
       </c>
       <c r="D3">
-        <v>0.03339330960244984</v>
+        <v>0.03339341243727114</v>
       </c>
       <c r="E3">
-        <v>58032.50520833334</v>
+        <v>58032.61458333334</v>
       </c>
       <c r="F3">
-        <v>0.1166002145674769</v>
+        <v>0.1166006806443515</v>
       </c>
       <c r="G3">
-        <v>26375.09375</v>
+        <v>26375.375</v>
       </c>
       <c r="H3">
-        <v>0.08144809876028797</v>
+        <v>0.08144896660187943</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>17787509045.66016</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>22628619716.59705</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>24040207007.16376</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>25131101654.41494</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>26722565950.24886</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>29538724522.34319</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>29538905616.55379</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>30176655747.9543</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>30534292450.49829</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>31054015191.47725</v>
@@ -5301,40 +5301,40 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>
@@ -5357,7 +5357,7 @@
         <v>336350.46875</v>
       </c>
       <c r="E2">
-        <v>327116.15625</v>
+        <v>327116.375</v>
       </c>
       <c r="F2">
         <v>334931.5</v>
@@ -5410,7 +5410,7 @@
         <v>324614.84375</v>
       </c>
       <c r="E3">
-        <v>327116.0625</v>
+        <v>327116.25</v>
       </c>
       <c r="F3">
         <v>315867.84375</v>
@@ -5463,7 +5463,7 @@
         <v>322657.03125</v>
       </c>
       <c r="E4">
-        <v>327116.34375</v>
+        <v>327116.40625</v>
       </c>
       <c r="F4">
         <v>310465.125</v>
@@ -5516,7 +5516,7 @@
         <v>331815.15625</v>
       </c>
       <c r="E5">
-        <v>327116.40625</v>
+        <v>327116.34375</v>
       </c>
       <c r="F5">
         <v>316182.21875</v>
@@ -5569,7 +5569,7 @@
         <v>339548.71875</v>
       </c>
       <c r="E6">
-        <v>327116.96875</v>
+        <v>327116.625</v>
       </c>
       <c r="F6">
         <v>301825.15625</v>
@@ -5622,7 +5622,7 @@
         <v>334038.40625</v>
       </c>
       <c r="E7">
-        <v>327117.125</v>
+        <v>327116.375</v>
       </c>
       <c r="F7">
         <v>301549.59375</v>
@@ -5675,7 +5675,7 @@
         <v>343469.6875</v>
       </c>
       <c r="E8">
-        <v>327117.15625</v>
+        <v>327115.65625</v>
       </c>
       <c r="F8">
         <v>316315.71875</v>
@@ -5728,7 +5728,7 @@
         <v>351437</v>
       </c>
       <c r="E9">
-        <v>327116.9375</v>
+        <v>327115.40625</v>
       </c>
       <c r="F9">
         <v>361156.71875</v>
@@ -5781,7 +5781,7 @@
         <v>345921.875</v>
       </c>
       <c r="E10">
-        <v>327116.9375</v>
+        <v>327117.125</v>
       </c>
       <c r="F10">
         <v>371578.625</v>
@@ -5834,7 +5834,7 @@
         <v>345709.875</v>
       </c>
       <c r="E11">
-        <v>327117</v>
+        <v>327118.71875</v>
       </c>
       <c r="F11">
         <v>297610.34375</v>
@@ -5887,7 +5887,7 @@
         <v>354161.15625</v>
       </c>
       <c r="E12">
-        <v>327117.0625</v>
+        <v>327119.4375</v>
       </c>
       <c r="F12">
         <v>298559.59375</v>
@@ -5940,7 +5940,7 @@
         <v>358883.15625</v>
       </c>
       <c r="E13">
-        <v>327117.28125</v>
+        <v>327119.84375</v>
       </c>
       <c r="F13">
         <v>285377.5</v>
@@ -5993,7 +5993,7 @@
         <v>370131.65625</v>
       </c>
       <c r="E14">
-        <v>327117.15625</v>
+        <v>327118.46875</v>
       </c>
       <c r="F14">
         <v>281432.375</v>
@@ -6046,7 +6046,7 @@
         <v>380230.09375</v>
       </c>
       <c r="E15">
-        <v>327117.1875</v>
+        <v>327117.4375</v>
       </c>
       <c r="F15">
         <v>263854</v>
@@ -6099,7 +6099,7 @@
         <v>374693.40625</v>
       </c>
       <c r="E16">
-        <v>327117.25</v>
+        <v>327118.09375</v>
       </c>
       <c r="F16">
         <v>299736.34375</v>
@@ -6152,7 +6152,7 @@
         <v>380195.09375</v>
       </c>
       <c r="E17">
-        <v>327117.03125</v>
+        <v>327118.65625</v>
       </c>
       <c r="F17">
         <v>312878.34375</v>
@@ -6205,7 +6205,7 @@
         <v>387047.4375</v>
       </c>
       <c r="E18">
-        <v>327116.90625</v>
+        <v>327117.625</v>
       </c>
       <c r="F18">
         <v>249459</v>
@@ -6258,7 +6258,7 @@
         <v>386568.625</v>
       </c>
       <c r="E19">
-        <v>327116.84375</v>
+        <v>327116.5625</v>
       </c>
       <c r="F19">
         <v>266658.3125</v>
@@ -6311,7 +6311,7 @@
         <v>396086.03125</v>
       </c>
       <c r="E20">
-        <v>327116.53125</v>
+        <v>327116.84375</v>
       </c>
       <c r="F20">
         <v>327796.3125</v>
@@ -6364,7 +6364,7 @@
         <v>403376.875</v>
       </c>
       <c r="E21">
-        <v>327116.40625</v>
+        <v>327117.21875</v>
       </c>
       <c r="F21">
         <v>235234.40625</v>
@@ -6417,7 +6417,7 @@
         <v>403439.53125</v>
       </c>
       <c r="E22">
-        <v>327116.4375</v>
+        <v>327117.1875</v>
       </c>
       <c r="F22">
         <v>355818.78125</v>
@@ -6470,7 +6470,7 @@
         <v>411771.84375</v>
       </c>
       <c r="E23">
-        <v>327116.5625</v>
+        <v>327117.15625</v>
       </c>
       <c r="F23">
         <v>266272.21875</v>
@@ -6523,7 +6523,7 @@
         <v>422131.625</v>
       </c>
       <c r="E24">
-        <v>327116.53125</v>
+        <v>327117</v>
       </c>
       <c r="F24">
         <v>294877.8125</v>
@@ -6576,7 +6576,7 @@
         <v>424277.75</v>
       </c>
       <c r="E25">
-        <v>327116.53125</v>
+        <v>327116.9375</v>
       </c>
       <c r="F25">
         <v>373556.0625</v>
@@ -6629,7 +6629,7 @@
         <v>427843.28125</v>
       </c>
       <c r="E26">
-        <v>327116.5625</v>
+        <v>327116.34375</v>
       </c>
       <c r="F26">
         <v>327049.75</v>
@@ -6682,7 +6682,7 @@
         <v>433416.65625</v>
       </c>
       <c r="E27">
-        <v>327116.46875</v>
+        <v>327115.59375</v>
       </c>
       <c r="F27">
         <v>417700.0625</v>
@@ -6735,7 +6735,7 @@
         <v>439008.03125</v>
       </c>
       <c r="E28">
-        <v>327116.53125</v>
+        <v>327116.25</v>
       </c>
       <c r="F28">
         <v>297527.46875</v>
@@ -6788,7 +6788,7 @@
         <v>439256.5625</v>
       </c>
       <c r="E29">
-        <v>327116.5625</v>
+        <v>327117.375</v>
       </c>
       <c r="F29">
         <v>358908.6875</v>
@@ -6841,7 +6841,7 @@
         <v>444300.9375</v>
       </c>
       <c r="E30">
-        <v>327116.53125</v>
+        <v>327116.71875</v>
       </c>
       <c r="F30">
         <v>356685.3125</v>
@@ -6894,7 +6894,7 @@
         <v>446321.21875</v>
       </c>
       <c r="E31">
-        <v>327116.59375</v>
+        <v>327115.25</v>
       </c>
       <c r="F31">
         <v>311850.46875</v>
@@ -6947,7 +6947,7 @@
         <v>449819.3125</v>
       </c>
       <c r="E32">
-        <v>327116.625</v>
+        <v>327114.90625</v>
       </c>
       <c r="F32">
         <v>350773.90625</v>
@@ -7000,7 +7000,7 @@
         <v>449343.875</v>
       </c>
       <c r="E33">
-        <v>327116.625</v>
+        <v>327115.375</v>
       </c>
       <c r="F33">
         <v>277393.8125</v>
@@ -7053,7 +7053,7 @@
         <v>456865.0625</v>
       </c>
       <c r="E34">
-        <v>327116.65625</v>
+        <v>327115.65625</v>
       </c>
       <c r="F34">
         <v>281028.65625</v>
